--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value329.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value329.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.8019458016037968</v>
+        <v>0.8411558866500854</v>
       </c>
       <c r="B1">
-        <v>1.493815455320085</v>
+        <v>1.210654497146606</v>
       </c>
       <c r="C1">
-        <v>4.89631660155918</v>
+        <v>-1</v>
       </c>
       <c r="D1">
-        <v>2.298199080621529</v>
+        <v>-1</v>
       </c>
       <c r="E1">
-        <v>1.064536991502982</v>
+        <v>1.328570365905762</v>
       </c>
     </row>
   </sheetData>
